--- a/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.3/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.3/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="447">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -363,6 +363,15 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altro (specificare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accreditamento già conseguito</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAD</t>
   </si>
   <si>
@@ -1643,9 +1652,6 @@
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
-    <t xml:space="preserve">Altro (specificare)</t>
-  </si>
-  <si>
     <t xml:space="preserve">TIPO DOCUMENTO</t>
   </si>
   <si>
@@ -1731,9 +1737,6 @@
   </si>
   <si>
     <t xml:space="preserve">FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
   </si>
 </sst>
 </file>
@@ -3766,14 +3769,14 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W750"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G194" activeCellId="0" sqref="G194"/>
+      <selection pane="bottomRight" activeCell="L199" activeCellId="0" sqref="L199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4191,9 +4194,15 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="39"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="J13" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
@@ -4216,10 +4225,10 @@
         <v>47</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>53</v>
@@ -4253,10 +4262,10 @@
         <v>47</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>53</v>
@@ -4290,10 +4299,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>53</v>
@@ -4327,10 +4336,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>53</v>
@@ -4364,10 +4373,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>53</v>
@@ -4404,10 +4413,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -4441,10 +4450,10 @@
         <v>55</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -4478,18 +4487,24 @@
         <v>57</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="J21" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
@@ -4512,13 +4527,13 @@
         <v>47</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>70</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -4549,13 +4564,13 @@
         <v>47</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -4586,13 +4601,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -4623,13 +4638,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -4660,13 +4675,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -4700,10 +4715,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -4721,7 +4736,7 @@
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
       <c r="U27" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V27" s="36"/>
       <c r="W27" s="34" t="s">
@@ -4739,10 +4754,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -4760,7 +4775,7 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V28" s="36"/>
       <c r="W28" s="34" t="s">
@@ -4778,18 +4793,24 @@
         <v>57</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>79</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
+      <c r="J29" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
       <c r="O29" s="34"/>
@@ -4799,7 +4820,7 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V29" s="36"/>
       <c r="W29" s="34" t="s">
@@ -4814,13 +4835,13 @@
         <v>47</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -4838,7 +4859,7 @@
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
       <c r="U30" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V30" s="36"/>
       <c r="W30" s="34" t="s">
@@ -4853,13 +4874,13 @@
         <v>47</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -4877,7 +4898,7 @@
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
       <c r="U31" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V31" s="36"/>
       <c r="W31" s="34" t="s">
@@ -4892,13 +4913,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -4916,7 +4937,7 @@
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
       <c r="U32" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V32" s="36"/>
       <c r="W32" s="34" t="s">
@@ -4931,13 +4952,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -4955,7 +4976,7 @@
       <c r="S33" s="34"/>
       <c r="T33" s="34"/>
       <c r="U33" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V33" s="36"/>
       <c r="W33" s="34" t="s">
@@ -4970,13 +4991,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -4994,7 +5015,7 @@
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
       <c r="U34" s="35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V34" s="36"/>
       <c r="W34" s="34" t="s">
@@ -5012,10 +5033,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -5049,10 +5070,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -5086,10 +5107,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -5123,10 +5144,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5160,10 +5181,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -5197,10 +5218,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -5234,10 +5255,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -5271,10 +5292,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -5308,10 +5329,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -5345,10 +5366,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -5382,10 +5403,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -5419,10 +5440,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5456,10 +5477,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -5493,10 +5514,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -5530,10 +5551,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -5567,10 +5588,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -5604,10 +5625,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -5641,10 +5662,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -5675,13 +5696,13 @@
         <v>47</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -5712,13 +5733,13 @@
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -5749,13 +5770,13 @@
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5786,13 +5807,13 @@
         <v>47</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5823,13 +5844,13 @@
         <v>47</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5860,13 +5881,13 @@
         <v>47</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -5897,13 +5918,13 @@
         <v>47</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -5934,13 +5955,13 @@
         <v>47</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -5971,13 +5992,13 @@
         <v>47</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -6008,13 +6029,13 @@
         <v>47</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -6045,13 +6066,13 @@
         <v>47</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -6082,13 +6103,13 @@
         <v>47</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6119,13 +6140,13 @@
         <v>47</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6156,13 +6177,13 @@
         <v>47</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -6193,13 +6214,13 @@
         <v>47</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -6230,13 +6251,13 @@
         <v>47</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -6267,13 +6288,13 @@
         <v>47</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6304,13 +6325,13 @@
         <v>47</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6341,13 +6362,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6378,13 +6399,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -6415,13 +6436,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6452,13 +6473,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -6489,13 +6510,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -6526,13 +6547,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -6563,13 +6584,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -6600,13 +6621,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -6637,13 +6658,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -6674,13 +6695,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -6711,13 +6732,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -6748,13 +6769,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -6785,13 +6806,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -6822,13 +6843,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -6859,13 +6880,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -6896,13 +6917,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -6933,13 +6954,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -6970,13 +6991,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -7007,13 +7028,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -7044,13 +7065,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7081,13 +7102,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7118,13 +7139,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7155,13 +7176,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7192,13 +7213,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7229,13 +7250,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7266,13 +7287,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7303,13 +7324,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7340,13 +7361,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7377,13 +7398,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -7414,13 +7435,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -7451,13 +7472,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -7488,13 +7509,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -7525,13 +7546,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -7562,13 +7583,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -7599,13 +7620,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -7636,13 +7657,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -7673,13 +7694,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -7710,13 +7731,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -7747,13 +7768,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -7784,13 +7805,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -7821,13 +7842,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -7858,13 +7879,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -7895,13 +7916,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -7932,13 +7953,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -7969,13 +7990,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -8006,13 +8027,13 @@
         <v>47</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -8043,13 +8064,13 @@
         <v>47</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -8080,13 +8101,13 @@
         <v>47</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -8117,13 +8138,13 @@
         <v>47</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -8154,13 +8175,13 @@
         <v>47</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -8191,13 +8212,13 @@
         <v>47</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -8228,13 +8249,13 @@
         <v>47</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -8265,13 +8286,13 @@
         <v>47</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -8302,13 +8323,13 @@
         <v>47</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -8339,13 +8360,13 @@
         <v>47</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -8376,13 +8397,13 @@
         <v>47</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -8413,13 +8434,13 @@
         <v>47</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -8450,13 +8471,13 @@
         <v>47</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -8487,13 +8508,13 @@
         <v>47</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -8524,13 +8545,13 @@
         <v>47</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -8564,18 +8585,24 @@
         <v>57</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
       <c r="H131" s="33"/>
       <c r="I131" s="39"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="34"/>
-      <c r="L131" s="34"/>
+      <c r="J131" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K131" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L131" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M131" s="34"/>
       <c r="N131" s="34"/>
       <c r="O131" s="34"/>
@@ -8601,18 +8628,24 @@
         <v>57</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
       <c r="H132" s="33"/>
       <c r="I132" s="39"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="34"/>
-      <c r="L132" s="34"/>
+      <c r="J132" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K132" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L132" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M132" s="34"/>
       <c r="N132" s="34"/>
       <c r="O132" s="34"/>
@@ -8638,18 +8671,24 @@
         <v>57</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
       <c r="H133" s="33"/>
       <c r="I133" s="39"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="34"/>
-      <c r="L133" s="34"/>
+      <c r="J133" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K133" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L133" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M133" s="34"/>
       <c r="N133" s="34"/>
       <c r="O133" s="34"/>
@@ -8675,18 +8714,24 @@
         <v>57</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
       <c r="H134" s="33"/>
       <c r="I134" s="39"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="34"/>
-      <c r="L134" s="34"/>
+      <c r="J134" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K134" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L134" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M134" s="34"/>
       <c r="N134" s="34"/>
       <c r="O134" s="34"/>
@@ -8712,18 +8757,24 @@
         <v>57</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
       <c r="H135" s="33"/>
       <c r="I135" s="39"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="34"/>
-      <c r="L135" s="34"/>
+      <c r="J135" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K135" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L135" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M135" s="34"/>
       <c r="N135" s="34"/>
       <c r="O135" s="34"/>
@@ -8749,18 +8800,24 @@
         <v>57</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="33"/>
       <c r="I136" s="39"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="34"/>
-      <c r="L136" s="34"/>
+      <c r="J136" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K136" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L136" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M136" s="34"/>
       <c r="N136" s="34"/>
       <c r="O136" s="34"/>
@@ -8786,18 +8843,24 @@
         <v>57</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
       <c r="H137" s="33"/>
       <c r="I137" s="39"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="34"/>
-      <c r="L137" s="34"/>
+      <c r="J137" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K137" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L137" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M137" s="34"/>
       <c r="N137" s="34"/>
       <c r="O137" s="34"/>
@@ -8823,18 +8886,24 @@
         <v>57</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
       <c r="H138" s="33"/>
       <c r="I138" s="39"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="34"/>
-      <c r="L138" s="34"/>
+      <c r="J138" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K138" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L138" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M138" s="34"/>
       <c r="N138" s="34"/>
       <c r="O138" s="34"/>
@@ -8860,18 +8929,24 @@
         <v>57</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
       <c r="I139" s="39"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="34"/>
-      <c r="L139" s="34"/>
+      <c r="J139" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K139" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L139" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M139" s="34"/>
       <c r="N139" s="34"/>
       <c r="O139" s="34"/>
@@ -8897,18 +8972,24 @@
         <v>57</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
       <c r="I140" s="39"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="34"/>
-      <c r="L140" s="34"/>
+      <c r="J140" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K140" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L140" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M140" s="34"/>
       <c r="N140" s="34"/>
       <c r="O140" s="34"/>
@@ -8934,18 +9015,24 @@
         <v>57</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
       <c r="I141" s="39"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="34"/>
-      <c r="L141" s="34"/>
+      <c r="J141" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K141" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L141" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M141" s="34"/>
       <c r="N141" s="34"/>
       <c r="O141" s="34"/>
@@ -8971,18 +9058,24 @@
         <v>57</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
       <c r="I142" s="39"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="34"/>
-      <c r="L142" s="34"/>
+      <c r="J142" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K142" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L142" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M142" s="34"/>
       <c r="N142" s="34"/>
       <c r="O142" s="34"/>
@@ -9008,18 +9101,24 @@
         <v>57</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
       <c r="I143" s="39"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="34"/>
-      <c r="L143" s="34"/>
+      <c r="J143" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K143" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L143" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M143" s="34"/>
       <c r="N143" s="34"/>
       <c r="O143" s="34"/>
@@ -9045,18 +9144,24 @@
         <v>57</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33"/>
       <c r="I144" s="39"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="34"/>
-      <c r="L144" s="34"/>
+      <c r="J144" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K144" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L144" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M144" s="34"/>
       <c r="N144" s="34"/>
       <c r="O144" s="34"/>
@@ -9082,18 +9187,24 @@
         <v>57</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
       <c r="I145" s="39"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="34"/>
-      <c r="L145" s="34"/>
+      <c r="J145" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K145" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L145" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M145" s="34"/>
       <c r="N145" s="34"/>
       <c r="O145" s="34"/>
@@ -9119,10 +9230,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9156,10 +9267,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9190,13 +9301,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9227,13 +9338,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9264,13 +9375,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -9301,10 +9412,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E151" s="38" t="s">
         <v>53</v>
@@ -9338,13 +9449,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -9375,13 +9486,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -9412,13 +9523,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -9449,13 +9560,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -9486,13 +9597,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -9523,13 +9634,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -9560,13 +9671,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -9597,13 +9708,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -9634,13 +9745,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -9671,13 +9782,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -9708,13 +9819,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
@@ -9745,13 +9856,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -9782,13 +9893,13 @@
         <v>47</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -9819,13 +9930,13 @@
         <v>47</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -9859,10 +9970,10 @@
         <v>55</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -9896,10 +10007,10 @@
         <v>55</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -9933,10 +10044,10 @@
         <v>48</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -9967,13 +10078,13 @@
         <v>47</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10004,13 +10115,13 @@
         <v>47</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10041,13 +10152,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10078,13 +10189,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10115,13 +10226,13 @@
         <v>47</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10152,13 +10263,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10189,13 +10300,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10226,13 +10337,13 @@
         <v>47</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F176" s="30"/>
       <c r="G176" s="30"/>
@@ -10263,13 +10374,13 @@
         <v>47</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F177" s="30"/>
       <c r="G177" s="30"/>
@@ -10300,13 +10411,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
@@ -10337,13 +10448,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
@@ -10374,13 +10485,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -10414,10 +10525,10 @@
         <v>48</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -10451,10 +10562,10 @@
         <v>55</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -10485,13 +10596,13 @@
         <v>47</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -10525,18 +10636,24 @@
         <v>57</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="30"/>
       <c r="H184" s="30"/>
       <c r="I184" s="30"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="34"/>
-      <c r="L184" s="30"/>
+      <c r="J184" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K184" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L184" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M184" s="34"/>
       <c r="N184" s="34"/>
       <c r="O184" s="30"/>
@@ -10559,13 +10676,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -10596,13 +10713,13 @@
         <v>47</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="33"/>
@@ -10633,13 +10750,13 @@
         <v>47</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
@@ -10673,10 +10790,10 @@
         <v>48</v>
       </c>
       <c r="D188" s="37" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -10707,13 +10824,13 @@
         <v>47</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -10744,13 +10861,13 @@
         <v>47</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -10784,18 +10901,24 @@
         <v>57</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
       <c r="H191" s="33"/>
       <c r="I191" s="39"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="34"/>
-      <c r="L191" s="34"/>
+      <c r="J191" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K191" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L191" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M191" s="34"/>
       <c r="N191" s="34"/>
       <c r="O191" s="34"/>
@@ -10821,18 +10944,24 @@
         <v>57</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
       <c r="H192" s="33"/>
       <c r="I192" s="39"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="34"/>
-      <c r="L192" s="34"/>
+      <c r="J192" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K192" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L192" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="M192" s="34"/>
       <c r="N192" s="34"/>
       <c r="O192" s="34"/>
@@ -10858,25 +10987,25 @@
         <v>57</v>
       </c>
       <c r="D193" s="30" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E193" s="40" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F193" s="41" t="n">
         <v>46014</v>
       </c>
       <c r="G193" s="42" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H193" s="42" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I193" s="42" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J193" s="43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K193" s="43"/>
       <c r="L193" s="43"/>
@@ -13575,24 +13704,7 @@
       <c r="W327" s="16"/>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F328" s="13"/>
-      <c r="G328" s="13"/>
-      <c r="H328" s="13"/>
-      <c r="I328" s="13"/>
-      <c r="J328" s="14"/>
-      <c r="K328" s="14"/>
-      <c r="L328" s="14"/>
-      <c r="M328" s="14"/>
-      <c r="N328" s="14"/>
-      <c r="O328" s="14"/>
-      <c r="P328" s="14"/>
-      <c r="Q328" s="14"/>
-      <c r="R328" s="14"/>
-      <c r="S328" s="14"/>
-      <c r="T328" s="14"/>
-      <c r="U328" s="15"/>
-      <c r="V328" s="3"/>
-      <c r="W328" s="16"/>
+      <c r="W328" s="14"/>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W329" s="14"/>
@@ -14842,14 +14954,12 @@
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W744" s="14"/>
     </row>
-    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W745" s="14"/>
-    </row>
+    <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A9:W193">
     <filterColumn colId="2">
@@ -14912,42 +15022,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>415</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -14987,22 +15097,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="47" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15010,13 +15120,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15024,83 +15134,83 @@
         <v>55</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15108,41 +15218,41 @@
         <v>57</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="50" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="50" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16139,18 +16249,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="56" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="56" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>445</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.3/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHMEDIWARE/MEDIWARE/ADVMEDNET/2.2.3/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="449">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -492,6 +492,12 @@
     <t xml:space="preserve">VALIDAZIONE_PSS_TIMEOUT</t>
   </si>
   <si>
+    <t xml:space="preserve">Invio Profilo Sanitario Sintetico fallito: il server non ha risposto nel tempo previsto (timeout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al medico compare una finestra bloccante con il messaggio di errore, l'informazione che può ritentare l'invio e che se il problema persiste deve riprovare l'invio in un altro momento ed il solo tasto OK. Il programma non esegue l'invio ed il medico può eventualmente ritentare l'invio</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
   </si>
   <si>
@@ -1748,7 +1754,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,6 +1854,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1882,7 +1894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2013,6 +2025,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="thin"/>
       <top style="medium"/>
       <bottom style="medium"/>
@@ -2069,7 +2088,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2230,31 +2249,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2262,7 +2289,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2608,7 +2635,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="1" sqref="S29 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2695,7 +2722,7 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="S29 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3772,11 +3799,11 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L199" activeCellId="0" sqref="L199"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="S29" activeCellId="0" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4782,7 +4809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="112.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="n">
         <v>46</v>
       </c>
@@ -4811,13 +4838,27 @@
       <c r="L29" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
+      <c r="M29" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="S29" s="41" t="s">
+        <v>87</v>
+      </c>
       <c r="T29" s="34"/>
       <c r="U29" s="35" t="s">
         <v>83</v>
@@ -4838,7 +4879,7 @@
         <v>62</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>82</v>
@@ -4877,7 +4918,7 @@
         <v>64</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>82</v>
@@ -4916,7 +4957,7 @@
         <v>66</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>82</v>
@@ -4955,7 +4996,7 @@
         <v>68</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>82</v>
@@ -4994,7 +5035,7 @@
         <v>70</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>82</v>
@@ -5033,10 +5074,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -5070,10 +5111,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -5107,10 +5148,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -5144,10 +5185,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5181,10 +5222,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -5218,10 +5259,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -5255,10 +5296,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -5292,10 +5333,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -5329,10 +5370,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -5366,10 +5407,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -5403,10 +5444,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -5440,10 +5481,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5477,10 +5518,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -5514,10 +5555,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -5551,10 +5592,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -5588,10 +5629,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -5625,10 +5666,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -5662,10 +5703,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -5699,10 +5740,10 @@
         <v>62</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -5736,10 +5777,10 @@
         <v>62</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -5773,10 +5814,10 @@
         <v>62</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5810,10 +5851,10 @@
         <v>62</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5847,10 +5888,10 @@
         <v>62</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5884,10 +5925,10 @@
         <v>62</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -5921,10 +5962,10 @@
         <v>62</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -5958,10 +5999,10 @@
         <v>62</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -5995,10 +6036,10 @@
         <v>62</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -6032,10 +6073,10 @@
         <v>62</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -6069,10 +6110,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -6106,10 +6147,10 @@
         <v>62</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6143,10 +6184,10 @@
         <v>62</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6180,10 +6221,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -6217,10 +6258,10 @@
         <v>62</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -6254,10 +6295,10 @@
         <v>62</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -6291,10 +6332,10 @@
         <v>66</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6328,10 +6369,10 @@
         <v>66</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6365,10 +6406,10 @@
         <v>66</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6402,10 +6443,10 @@
         <v>66</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -6439,10 +6480,10 @@
         <v>66</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6476,10 +6517,10 @@
         <v>66</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -6513,10 +6554,10 @@
         <v>66</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -6550,10 +6591,10 @@
         <v>66</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -6587,10 +6628,10 @@
         <v>66</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -6624,10 +6665,10 @@
         <v>66</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -6661,10 +6702,10 @@
         <v>66</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -6698,10 +6739,10 @@
         <v>68</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -6735,10 +6776,10 @@
         <v>68</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -6772,10 +6813,10 @@
         <v>68</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -6809,10 +6850,10 @@
         <v>68</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -6846,10 +6887,10 @@
         <v>68</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -6883,10 +6924,10 @@
         <v>68</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -6920,10 +6961,10 @@
         <v>68</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -6957,10 +6998,10 @@
         <v>68</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -6994,10 +7035,10 @@
         <v>68</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -7031,10 +7072,10 @@
         <v>68</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -7068,10 +7109,10 @@
         <v>68</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7105,10 +7146,10 @@
         <v>68</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7142,10 +7183,10 @@
         <v>68</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7179,10 +7220,10 @@
         <v>70</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7216,10 +7257,10 @@
         <v>70</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7253,10 +7294,10 @@
         <v>70</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7290,10 +7331,10 @@
         <v>70</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7327,10 +7368,10 @@
         <v>70</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7364,10 +7405,10 @@
         <v>70</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7401,10 +7442,10 @@
         <v>70</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -7438,10 +7479,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -7475,10 +7516,10 @@
         <v>70</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -7512,10 +7553,10 @@
         <v>70</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -7549,10 +7590,10 @@
         <v>70</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -7586,10 +7627,10 @@
         <v>70</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -7623,10 +7664,10 @@
         <v>70</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -7660,10 +7701,10 @@
         <v>70</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -7697,10 +7738,10 @@
         <v>70</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -7734,10 +7775,10 @@
         <v>70</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -7771,10 +7812,10 @@
         <v>70</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -7808,10 +7849,10 @@
         <v>70</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -7845,10 +7886,10 @@
         <v>70</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -7882,10 +7923,10 @@
         <v>70</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -7919,10 +7960,10 @@
         <v>70</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -7956,10 +7997,10 @@
         <v>70</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -7993,10 +8034,10 @@
         <v>70</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -8030,10 +8071,10 @@
         <v>64</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -8067,10 +8108,10 @@
         <v>64</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -8104,10 +8145,10 @@
         <v>64</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -8141,10 +8182,10 @@
         <v>64</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -8178,10 +8219,10 @@
         <v>64</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -8215,10 +8256,10 @@
         <v>64</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -8252,10 +8293,10 @@
         <v>64</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -8289,10 +8330,10 @@
         <v>64</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -8326,10 +8367,10 @@
         <v>64</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -8363,10 +8404,10 @@
         <v>64</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -8400,10 +8441,10 @@
         <v>64</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -8437,10 +8478,10 @@
         <v>64</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -8474,10 +8515,10 @@
         <v>64</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -8511,10 +8552,10 @@
         <v>64</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -8548,10 +8589,10 @@
         <v>64</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -8585,10 +8626,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -8628,10 +8669,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -8671,10 +8712,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -8714,10 +8755,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -8757,10 +8798,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -8800,10 +8841,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -8843,10 +8884,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -8886,10 +8927,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -8929,10 +8970,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -8972,10 +9013,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -9015,10 +9056,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -9058,10 +9099,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -9101,10 +9142,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -9144,10 +9185,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -9187,10 +9228,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -9230,10 +9271,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9267,10 +9308,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9301,13 +9342,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9338,13 +9379,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9375,13 +9416,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -9412,10 +9453,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E151" s="38" t="s">
         <v>53</v>
@@ -9449,10 +9490,10 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>73</v>
@@ -9486,13 +9527,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -9523,13 +9564,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -9560,13 +9601,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -9597,13 +9638,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -9634,13 +9675,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -9671,13 +9712,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -9708,13 +9749,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -9745,13 +9786,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -9782,13 +9823,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -9819,13 +9860,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
@@ -9856,13 +9897,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -9896,10 +9937,10 @@
         <v>64</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -9933,10 +9974,10 @@
         <v>64</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -9970,10 +10011,10 @@
         <v>55</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -10007,10 +10048,10 @@
         <v>55</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -10044,10 +10085,10 @@
         <v>48</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -10081,10 +10122,10 @@
         <v>70</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10118,10 +10159,10 @@
         <v>70</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10155,10 +10196,10 @@
         <v>68</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10192,10 +10233,10 @@
         <v>68</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10229,10 +10270,10 @@
         <v>66</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10266,10 +10307,10 @@
         <v>66</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10300,13 +10341,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10340,10 +10381,10 @@
         <v>64</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F176" s="30"/>
       <c r="G176" s="30"/>
@@ -10377,10 +10418,10 @@
         <v>62</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F177" s="30"/>
       <c r="G177" s="30"/>
@@ -10414,10 +10455,10 @@
         <v>70</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
@@ -10451,10 +10492,10 @@
         <v>66</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
@@ -10488,10 +10529,10 @@
         <v>68</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -10525,10 +10566,10 @@
         <v>48</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -10562,10 +10603,10 @@
         <v>55</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -10599,10 +10640,10 @@
         <v>64</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -10636,10 +10677,10 @@
         <v>57</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="30"/>
@@ -10676,13 +10717,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -10716,10 +10757,10 @@
         <v>62</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="33"/>
@@ -10753,10 +10794,10 @@
         <v>62</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
@@ -10790,10 +10831,10 @@
         <v>48</v>
       </c>
       <c r="D188" s="37" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -10827,10 +10868,10 @@
         <v>62</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -10864,10 +10905,10 @@
         <v>64</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -10901,10 +10942,10 @@
         <v>57</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -10944,10 +10985,10 @@
         <v>57</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -10987,39 +11028,39 @@
         <v>57</v>
       </c>
       <c r="D193" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="E193" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="F193" s="41" t="n">
+        <v>408</v>
+      </c>
+      <c r="E193" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="F193" s="43" t="n">
         <v>46014</v>
       </c>
-      <c r="G193" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="H193" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="I193" s="42" t="s">
+      <c r="G193" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="J193" s="43" t="s">
+      <c r="H193" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="I193" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="J193" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="K193" s="43"/>
-      <c r="L193" s="43"/>
-      <c r="M193" s="43"/>
-      <c r="N193" s="43"/>
-      <c r="O193" s="43"/>
-      <c r="P193" s="43"/>
-      <c r="Q193" s="43"/>
-      <c r="R193" s="43"/>
-      <c r="S193" s="43"/>
-      <c r="T193" s="43"/>
-      <c r="U193" s="44"/>
-      <c r="V193" s="45"/>
-      <c r="W193" s="46" t="s">
+      <c r="K193" s="45"/>
+      <c r="L193" s="45"/>
+      <c r="M193" s="45"/>
+      <c r="N193" s="45"/>
+      <c r="O193" s="45"/>
+      <c r="P193" s="45"/>
+      <c r="Q193" s="45"/>
+      <c r="R193" s="45"/>
+      <c r="S193" s="45"/>
+      <c r="T193" s="45"/>
+      <c r="U193" s="46"/>
+      <c r="V193" s="47"/>
+      <c r="W193" s="48" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15015,44 +15056,44 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="S29 I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15081,7 +15122,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="1" sqref="S29 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15096,170 +15137,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>418</v>
+      <c r="A1" s="49" t="s">
+        <v>420</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="G1" s="49" t="s">
         <v>422</v>
       </c>
+      <c r="F1" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="52" t="s">
         <v>425</v>
       </c>
+      <c r="C2" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>427</v>
+      <c r="B3" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>428</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>429</v>
+      <c r="B4" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>431</v>
+      <c r="B5" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>432</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>433</v>
+      <c r="B6" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>434</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>435</v>
+      <c r="B7" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>436</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>437</v>
+      <c r="B8" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>439</v>
+      <c r="B9" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>441</v>
-      </c>
-      <c r="D10" s="52" t="s">
+      <c r="A10" s="52" t="s">
         <v>442</v>
       </c>
+      <c r="B10" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>444</v>
+      <c r="A11" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="55"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="55"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16229,7 +16270,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="S29 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16240,32 +16281,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
-        <v>445</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="58" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="58" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
